--- a/_includes/2015_nutrient/2015 - Geo1370 - Nutrient Lab Data.xlsx
+++ b/_includes/2015_nutrient/2015 - Geo1370 - Nutrient Lab Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="24180" windowHeight="15620"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="24100" windowHeight="15620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>NH4</t>
   </si>
@@ -44,6 +44,84 @@
     <t>SiO2</t>
   </si>
   <si>
+    <t>Concentration (ppb)</t>
+  </si>
+  <si>
+    <t>Calibration ID</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>W14</t>
+  </si>
+  <si>
+    <t>W15</t>
+  </si>
+  <si>
+    <t>W16</t>
+  </si>
+  <si>
+    <t>W17</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>R2 (rain)</t>
+  </si>
+  <si>
+    <t>R1(rain)</t>
+  </si>
+  <si>
     <t>NH4_1</t>
   </si>
   <si>
@@ -68,15 +146,6 @@
     <t>NH4_8</t>
   </si>
   <si>
-    <t>Concentration (ppb)</t>
-  </si>
-  <si>
-    <t>Calibration ID</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>NO3_1</t>
   </si>
   <si>
@@ -119,12 +188,12 @@
     <t>PO4_6</t>
   </si>
   <si>
+    <t>PO4_7</t>
+  </si>
+  <si>
     <t>PO4_8</t>
   </si>
   <si>
-    <t>PO4_7</t>
-  </si>
-  <si>
     <t>Si_1</t>
   </si>
   <si>
@@ -149,64 +218,28 @@
     <t>Si_8</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
-    <t>W3</t>
-  </si>
-  <si>
-    <t>W4</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>W7</t>
-  </si>
-  <si>
-    <t>W8</t>
-  </si>
-  <si>
-    <t>W9</t>
-  </si>
-  <si>
-    <t>W10</t>
-  </si>
-  <si>
-    <t>W11</t>
-  </si>
-  <si>
-    <t>W12</t>
-  </si>
-  <si>
-    <t>W13</t>
-  </si>
-  <si>
-    <t>W14</t>
-  </si>
-  <si>
-    <t>W15</t>
-  </si>
-  <si>
-    <t>W16</t>
-  </si>
-  <si>
-    <t>W17</t>
-  </si>
-  <si>
-    <t>W18</t>
-  </si>
-  <si>
-    <t>W19</t>
-  </si>
-  <si>
-    <t>W20</t>
-  </si>
-  <si>
-    <t>W21</t>
+    <t>NO2_1</t>
+  </si>
+  <si>
+    <t>NO2_2</t>
+  </si>
+  <si>
+    <t>NO2_3</t>
+  </si>
+  <si>
+    <t>NO2_4</t>
+  </si>
+  <si>
+    <t>NO2_5</t>
+  </si>
+  <si>
+    <t>NO2_6</t>
+  </si>
+  <si>
+    <t>NO2_7</t>
+  </si>
+  <si>
+    <t>NO2_8</t>
   </si>
 </sst>
 </file>
@@ -306,7 +339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -326,8 +359,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,12 +404,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,14 +422,15 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -400,6 +440,12 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -409,6 +455,12 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -813,9 +865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -828,18 +880,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1">
-      <c r="A1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1">
-      <c r="A2" s="16"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -849,147 +901,282 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="17">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="C3" s="17">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="E3" s="17">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>8.9999999999999998E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3.73E-2</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="17">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.3125</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1.03E-2</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="17">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2.0200999999999998</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="E6" s="17">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1.0348999999999999</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="17">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-4.0000000000000002E-4</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="17">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.39539999999999997</v>
+      </c>
+      <c r="D9" s="17">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.2145</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.1638</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F11" s="17">
+        <v>4.7000000000000002E-3</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="17">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.28610000000000002</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.4526</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="17">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="17">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2.0999999999999999E-3</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -997,12 +1184,23 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1E-4</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1010,104 +1208,207 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="17">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-8.9999999999999998E-4</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="17">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D17" s="17">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1E-4</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="B18" s="17">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D18" s="17">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="17">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="C19" s="17">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D19" s="17">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="E19" s="17">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-1.1999999999999999E-3</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="B20" s="17">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="D20" s="17">
+        <v>5.62E-2</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.61009999999999998</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.1552</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="E21" s="17">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="F21" s="17">
+        <v>9.1999999999999998E-3</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B22" s="17">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="C22" s="17">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="D22" s="17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E22" s="17">
+        <v>6.83E-2</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1.7299999999999999E-2</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="C23" s="17">
+        <v>-1E-4</v>
+      </c>
+      <c r="D23" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E23" s="17">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-8.9999999999999998E-4</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="17">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="C24" s="17">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1.54E-2</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1E-3</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1117,7 +1418,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="12"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1127,7 +1428,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="12"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1138,7 +1439,7 @@
       <c r="B27" s="7"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="12"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1149,7 +1450,7 @@
       <c r="B28" s="7"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="12"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1160,7 +1461,7 @@
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="12"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1171,7 +1472,7 @@
       <c r="B30" s="7"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="12"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -1447,688 +1748,771 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="9"/>
+    <col min="13" max="13" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="9"/>
+    <col min="17" max="17" width="11.5703125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="Q1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" s="19" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="10" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14">
+      <c r="S2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17">
         <v>0</v>
       </c>
-      <c r="C3" s="14">
-        <v>-1.940000057220459E-2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="C3" s="17">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="17">
         <v>0</v>
       </c>
-      <c r="G3" s="14">
-        <v>-1.1900000274181366E-2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="G3" s="17">
         <v>0</v>
       </c>
-      <c r="K3" s="14">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="I3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="17">
+        <v>41.33</v>
+      </c>
+      <c r="G4" s="17">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="17">
+        <v>5</v>
+      </c>
+      <c r="S4" s="17">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>-2.0500000566244125E-2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="14">
-        <v>14.5</v>
-      </c>
-      <c r="G4" s="14">
-        <v>-1.679999940097332E-2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>-1.0400000028312206E-2</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="B5" s="17">
+        <v>49.715000000000003</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="17">
+        <v>82.66</v>
+      </c>
+      <c r="G5" s="17">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="17">
+        <v>26.75</v>
+      </c>
+      <c r="K5" s="17">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="17">
+        <v>49.75</v>
+      </c>
+      <c r="O5" s="17">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="17">
+        <v>10</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14">
-        <v>48.849998474121094</v>
-      </c>
-      <c r="C5" s="14">
-        <v>-2.7000000700354576E-3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14">
-        <v>36.25</v>
-      </c>
-      <c r="G5" s="14">
-        <v>-1.6599999740719795E-2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="14">
-        <v>48.150001525878906</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="B6" s="17">
+        <v>49.715000000000003</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="17">
+        <v>165.32</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="17">
+        <v>26.75</v>
+      </c>
+      <c r="K6" s="17">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="17">
+        <v>49.75</v>
+      </c>
+      <c r="O6" s="17">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="17">
+        <v>31.25</v>
+      </c>
+      <c r="S6" s="17">
+        <v>5.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="14">
-        <v>28.340000152587891</v>
-      </c>
-      <c r="O5" s="14">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14">
-        <v>48.849998474121094</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1.0999999940395355E-3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="14">
-        <v>108.75</v>
-      </c>
-      <c r="G6" s="14">
-        <v>7.8999996185302734E-3</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="14">
-        <v>48.150001525878906</v>
-      </c>
-      <c r="K6" s="14">
-        <v>-2.6000000070780516E-3</v>
-      </c>
-      <c r="M6" s="10" t="s">
+      <c r="B7" s="17">
+        <v>99.43</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="17">
+        <v>330.64</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="17">
+        <v>53.5</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="17">
+        <v>99.5</v>
+      </c>
+      <c r="O7" s="17">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="17">
+        <v>62.5</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="14">
-        <v>28.340000152587891</v>
-      </c>
-      <c r="O6" s="14">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="14">
-        <v>97.699996948242188</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1.080000028014183E-2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="14">
-        <v>217.5</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0.11990000307559967</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="14">
-        <v>96.300003051757812</v>
-      </c>
-      <c r="K7" s="14">
-        <v>3.1000000890344381E-3</v>
-      </c>
-      <c r="M7" s="10" t="s">
+      <c r="B8" s="17">
+        <v>99.43</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="17">
+        <v>495.96</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="17">
+        <v>53.5</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1.52E-2</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="17">
+        <v>99.5</v>
+      </c>
+      <c r="O8" s="17">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="17">
+        <v>100</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0.15840000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="14">
-        <v>70.849998474121094</v>
-      </c>
-      <c r="O7" s="14">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14">
-        <v>97.699996948242188</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1.8699999898672104E-2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14">
-        <v>362.5</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0.26460000872612</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="14">
-        <v>96.300003051757812</v>
-      </c>
-      <c r="K8" s="14">
-        <v>3.599999938160181E-3</v>
-      </c>
-      <c r="M8" s="10" t="s">
+      <c r="B9" s="17">
+        <v>198.86</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="17">
+        <v>661.28</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="17">
+        <v>107</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="17">
+        <v>199</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1.06E-2</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="17">
+        <v>200</v>
+      </c>
+      <c r="S9" s="17">
+        <v>0.31619999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="14">
-        <v>70.849998474121094</v>
-      </c>
-      <c r="O8" s="14">
-        <v>3.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <v>195.39999389648438</v>
-      </c>
-      <c r="C9" s="14">
-        <v>4.179999977350235E-2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="14">
-        <v>543.75</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0.4122999906539917</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="14">
-        <v>192.60000610351562</v>
-      </c>
-      <c r="K9" s="14">
-        <v>2.370000071823597E-2</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="B10" s="17">
+        <v>198.86</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="17">
+        <v>826.6</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="17">
+        <v>107</v>
+      </c>
+      <c r="K10" s="17">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="17">
+        <v>199</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1.06E-2</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="17">
+        <v>300</v>
+      </c>
+      <c r="S10" s="17">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="14">
-        <v>141.69999694824219</v>
-      </c>
-      <c r="O9" s="14">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14">
-        <v>195.39999389648438</v>
-      </c>
-      <c r="C10" s="14">
-        <v>3.3900000154972076E-2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="14">
-        <v>652.5</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0.55220001935958862</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="14">
-        <v>192.60000610351562</v>
-      </c>
-      <c r="K10" s="14">
-        <v>2.4E-2</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="B11" s="17">
+        <v>397.72</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="17">
+        <v>214</v>
+      </c>
+      <c r="K11" s="17">
+        <v>5.79E-2</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="17">
+        <v>398</v>
+      </c>
+      <c r="O11" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="14">
-        <v>141.69999694824219</v>
-      </c>
-      <c r="O10" s="14">
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14">
-        <v>293.10000610351562</v>
-      </c>
-      <c r="C11" s="14">
-        <v>7.0200003683567047E-2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="14">
-        <v>288.89999389648438</v>
-      </c>
-      <c r="K11" s="14">
-        <v>3.840000182390213E-2</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="B12" s="17">
+        <v>397.72</v>
+      </c>
+      <c r="C12" s="17">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="17">
+        <v>214</v>
+      </c>
+      <c r="K12" s="17">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="17">
+        <v>398</v>
+      </c>
+      <c r="O12" s="17">
+        <v>2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="14">
-        <v>283.39999389648438</v>
-      </c>
-      <c r="O11" s="14">
-        <v>1.52E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14">
-        <v>293.10000610351562</v>
-      </c>
-      <c r="C12" s="14">
-        <v>6.9200001657009125E-2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="14">
-        <v>288.89999389648438</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="M12" s="10" t="s">
+      <c r="B13" s="17">
+        <v>596.58000000000004</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.1409</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="17">
+        <v>321</v>
+      </c>
+      <c r="K13" s="17">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="17">
+        <v>597</v>
+      </c>
+      <c r="O13" s="17">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="14">
-        <v>283.39999389648438</v>
-      </c>
-      <c r="O12" s="14">
-        <v>1.54E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14">
-        <v>390.79998779296875</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.11460000276565552</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="14">
-        <v>385.20001220703125</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="B14" s="17">
+        <v>596.58000000000004</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="17">
+        <v>321</v>
+      </c>
+      <c r="K14" s="17">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="17">
+        <v>597</v>
+      </c>
+      <c r="O14" s="17">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="14">
-        <v>425.10000610351562</v>
-      </c>
-      <c r="O13" s="14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="14">
-        <v>390.79998779296875</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0.1005999967455864</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="14">
-        <v>385.20001220703125</v>
-      </c>
-      <c r="K14" s="14">
-        <v>6.1799999326467514E-2</v>
-      </c>
-      <c r="M14" s="10" t="s">
+      <c r="B15" s="17">
+        <v>795.44</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="I15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="17">
+        <v>428</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0.1038</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="17">
+        <v>796</v>
+      </c>
+      <c r="O15" s="17">
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="14">
-        <v>425.10000610351562</v>
-      </c>
-      <c r="O14" s="14">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="14">
-        <v>586.20001220703125</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.17399999499320984</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="14">
-        <v>433.35000610351562</v>
-      </c>
-      <c r="K15" s="14">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="B16" s="17">
+        <v>795.44</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="I16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="17">
+        <v>428</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.1045</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="17">
+        <v>796</v>
+      </c>
+      <c r="O16" s="17">
+        <v>4.0599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="14">
-        <v>566.79998779296875</v>
-      </c>
-      <c r="O15" s="14">
-        <v>3.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="14">
-        <v>586.20001220703125</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.17319999635219574</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="14">
-        <v>433.35000610351562</v>
-      </c>
-      <c r="K16" s="14">
-        <v>7.3200002312660217E-2</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="B17" s="17">
+        <v>994.3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="17">
+        <v>535</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="17">
+        <v>995</v>
+      </c>
+      <c r="O17" s="17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="14">
-        <v>566.79998779296875</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="14">
-        <v>781.5999755859375</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.23370000720024109</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="I17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="14">
-        <v>481.5</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0.09</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="14">
-        <v>708.5</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="14">
-        <v>781.5999755859375</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.24560000002384186</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="I18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="14">
-        <v>481.5</v>
-      </c>
-      <c r="K18" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="14">
-        <v>708.5</v>
-      </c>
-      <c r="O18" s="14">
-        <v>4.1000000000000002E-2</v>
+      <c r="B18" s="17">
+        <v>994.3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.2492</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="17">
+        <v>535</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0.1295</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="17">
+        <v>995</v>
+      </c>
+      <c r="O18" s="17">
+        <v>5.1200000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="I19" s="14"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="I20" s="14"/>
+      <c r="C20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="I21" s="14"/>
+      <c r="C21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="C22" s="10"/>
-      <c r="I22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="C23" s="10"/>
-      <c r="I23" s="14"/>
+      <c r="C23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="C24" s="10"/>
-      <c r="I24" s="14"/>
+      <c r="C24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="C25" s="10"/>
-      <c r="I25" s="14"/>
+      <c r="C25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="C26" s="10"/>
-      <c r="I26" s="14"/>
+      <c r="C26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="C27" s="10"/>
-      <c r="I27" s="14"/>
+      <c r="C27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="C28" s="10"/>
-      <c r="I28" s="14"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="C29" s="10"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="I31" s="14"/>
+      <c r="I29" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/_includes/2015_nutrient/2015 - Geo1370 - Nutrient Lab Data.xlsx
+++ b/_includes/2015_nutrient/2015 - Geo1370 - Nutrient Lab Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>NH4</t>
   </si>
@@ -292,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -338,6 +338,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -372,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,6 +452,40 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,13 +496,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -879,19 +948,25 @@
     <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1">
-      <c r="A2" s="14"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
+      <c r="A2" s="26"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -907,513 +982,594 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>0.74460000000000004</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>6.3E-2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="13">
         <v>3.73E-2</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>0.3125</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>6.59E-2</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>1.03E-2</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>2.0200999999999998</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>0.20050000000000001</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>1.0348999999999999</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <v>1.9E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="13">
         <v>-1.1999999999999999E-3</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <v>0.39539999999999997</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>0.2145</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>1.5E-3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="13">
         <v>1E-3</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <v>0.1638</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>0.13189999999999999</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="13">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>0.90249999999999997</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>0.28610000000000002</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <v>0.4526</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>0.04</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="13">
         <v>1E-3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="13">
         <v>0</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <v>1E-4</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="13">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <v>-8.9999999999999998E-4</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <v>1E-4</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>-5.0000000000000001E-4</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="13">
         <v>-6.9999999999999999E-4</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="13">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="13">
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="13">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>0.97340000000000004</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <v>5.62E-2</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="13">
         <v>0.61009999999999998</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="13">
         <v>0.1552</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="13">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="13">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="13">
         <v>6.3E-2</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>6.83E-2</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="13">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <v>-1E-4</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="13">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="13">
         <v>-8.9999999999999998E-4</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="13">
         <v>-2.5999999999999999E-3</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="13">
         <v>1.34E-2</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>1.54E-2</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="13">
         <v>1E-3</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="10"/>
@@ -1423,7 +1579,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="10"/>
@@ -1434,7 +1590,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="10"/>
@@ -1445,7 +1601,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="10"/>
@@ -1456,7 +1612,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
@@ -1467,7 +1623,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="10"/>
@@ -1477,12 +1633,12 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -1727,9 +1883,10 @@
       <c r="I82" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1748,11 +1905,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1778,694 +1935,671 @@
     <col min="19" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" s="14" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="I1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="M1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="Q1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" s="19" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>1</v>
+      <c r="C2" s="13">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+      <c r="O2" s="13">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
-        <v>1.8E-3</v>
+      <c r="C3" s="13">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="F3" s="13">
+        <v>41.33</v>
+      </c>
+      <c r="G3" s="13">
+        <v>4.53E-2</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <v>0</v>
       </c>
-      <c r="K3" s="17">
-        <v>0</v>
+      <c r="K3" s="13">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="13">
         <v>0</v>
       </c>
-      <c r="O3" s="17">
-        <v>4.0000000000000002E-4</v>
+      <c r="O3" s="13">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" s="17">
-        <v>0</v>
-      </c>
-      <c r="S3" s="17">
-        <v>2.0000000000000001E-4</v>
+        <v>64</v>
+      </c>
+      <c r="R3" s="13">
+        <v>5</v>
+      </c>
+      <c r="S3" s="13">
+        <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>4.0000000000000002E-4</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
+        <v>49.715000000000003</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.4E-2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="17">
-        <v>41.33</v>
-      </c>
-      <c r="G4" s="17">
-        <v>4.53E-2</v>
+        <v>41</v>
+      </c>
+      <c r="F4" s="13">
+        <v>82.66</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
-        <v>2.0000000000000001E-4</v>
+        <v>48</v>
+      </c>
+      <c r="J4" s="13">
+        <v>26.75</v>
+      </c>
+      <c r="K4" s="13">
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="17">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <v>2.9999999999999997E-4</v>
+        <v>56</v>
+      </c>
+      <c r="N4" s="13">
+        <v>49.75</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="17">
-        <v>5</v>
-      </c>
-      <c r="S4" s="17">
-        <v>7.1000000000000004E-3</v>
+        <v>65</v>
+      </c>
+      <c r="R4" s="13">
+        <v>10</v>
+      </c>
+      <c r="S4" s="13">
+        <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>49.715000000000003</v>
       </c>
-      <c r="C5" s="17">
-        <v>1.4E-2</v>
+      <c r="C5" s="13">
+        <v>1.72E-2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="17">
-        <v>82.66</v>
-      </c>
-      <c r="G5" s="17">
-        <v>8.7900000000000006E-2</v>
+        <v>42</v>
+      </c>
+      <c r="F5" s="13">
+        <v>165.32</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.17249999999999999</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <v>26.75</v>
       </c>
-      <c r="K5" s="17">
-        <v>7.7999999999999996E-3</v>
+      <c r="K5" s="13">
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="13">
         <v>49.75</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="13">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="17">
-        <v>10</v>
-      </c>
-      <c r="S5" s="17">
-        <v>1.5299999999999999E-2</v>
+        <v>66</v>
+      </c>
+      <c r="R5" s="13">
+        <v>31.25</v>
+      </c>
+      <c r="S5" s="13">
+        <v>5.0700000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="17">
-        <v>49.715000000000003</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1.72E-2</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="13">
+        <v>99.43</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2.52E-2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="17">
-        <v>165.32</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0.17249999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="F6" s="13">
+        <v>330.64</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.35</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="17">
-        <v>26.75</v>
-      </c>
-      <c r="K6" s="17">
-        <v>8.2000000000000007E-3</v>
+        <v>49</v>
+      </c>
+      <c r="J6" s="13">
+        <v>53.5</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="17">
-        <v>49.75</v>
-      </c>
-      <c r="O6" s="17">
-        <v>2.8999999999999998E-3</v>
+        <v>57</v>
+      </c>
+      <c r="N6" s="13">
+        <v>99.5</v>
+      </c>
+      <c r="O6" s="13">
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="17">
-        <v>31.25</v>
-      </c>
-      <c r="S6" s="17">
-        <v>5.0700000000000002E-2</v>
+        <v>67</v>
+      </c>
+      <c r="R6" s="13">
+        <v>62.5</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0.10249999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>99.43</v>
       </c>
-      <c r="C7" s="17">
-        <v>2.52E-2</v>
+      <c r="C7" s="13">
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="17">
-        <v>330.64</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0.35</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="13">
+        <v>495.96</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.51</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="13">
         <v>53.5</v>
       </c>
-      <c r="K7" s="17">
-        <v>1.5100000000000001E-2</v>
+      <c r="K7" s="13">
+        <v>1.52E-2</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="13">
         <v>99.5</v>
       </c>
-      <c r="O7" s="17">
-        <v>5.4000000000000003E-3</v>
+      <c r="O7" s="13">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="17">
-        <v>62.5</v>
-      </c>
-      <c r="S7" s="17">
-        <v>0.10249999999999999</v>
+        <v>68</v>
+      </c>
+      <c r="R7" s="13">
+        <v>100</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0.15840000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="17">
-        <v>99.43</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2.7199999999999998E-2</v>
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="13">
+        <v>198.86</v>
+      </c>
+      <c r="C8" s="13">
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="17">
-        <v>495.96</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0.51</v>
+        <v>45</v>
+      </c>
+      <c r="F8" s="13">
+        <v>661.28</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.66720000000000002</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="17">
-        <v>53.5</v>
-      </c>
-      <c r="K8" s="17">
-        <v>1.52E-2</v>
+        <v>50</v>
+      </c>
+      <c r="J8" s="13">
+        <v>107</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="17">
-        <v>99.5</v>
-      </c>
-      <c r="O8" s="17">
-        <v>5.7999999999999996E-3</v>
+        <v>58</v>
+      </c>
+      <c r="N8" s="13">
+        <v>199</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1.06E-2</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="17">
-        <v>100</v>
-      </c>
-      <c r="S8" s="17">
-        <v>0.15840000000000001</v>
+        <v>69</v>
+      </c>
+      <c r="R8" s="13">
+        <v>200</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0.31619999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>198.86</v>
       </c>
-      <c r="C9" s="17">
-        <v>4.6199999999999998E-2</v>
+      <c r="C9" s="13">
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="17">
-        <v>661.28</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.66720000000000002</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="13">
+        <v>826.6</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.83960000000000001</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>107</v>
       </c>
-      <c r="K9" s="17">
-        <v>2.9700000000000001E-2</v>
+      <c r="K9" s="13">
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <v>199</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="13">
         <v>1.06E-2</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R9" s="17">
-        <v>200</v>
-      </c>
-      <c r="S9" s="17">
-        <v>0.31619999999999998</v>
+        <v>70</v>
+      </c>
+      <c r="R9" s="13">
+        <v>300</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="17">
-        <v>198.86</v>
-      </c>
-      <c r="C10" s="17">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="17">
-        <v>826.6</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0.83960000000000001</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="13">
+        <v>397.72</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.10440000000000001</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="17">
-        <v>107</v>
-      </c>
-      <c r="K10" s="17">
-        <v>3.0300000000000001E-2</v>
+        <v>51</v>
+      </c>
+      <c r="J10" s="13">
+        <v>214</v>
+      </c>
+      <c r="K10" s="13">
+        <v>5.79E-2</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="17">
-        <v>199</v>
-      </c>
-      <c r="O10" s="17">
-        <v>1.06E-2</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="17">
-        <v>300</v>
-      </c>
-      <c r="S10" s="17">
-        <v>0.45700000000000002</v>
+        <v>59</v>
+      </c>
+      <c r="N10" s="13">
+        <v>398</v>
+      </c>
+      <c r="O10" s="13">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="13">
         <v>397.72</v>
       </c>
-      <c r="C11" s="17">
-        <v>0.10440000000000001</v>
+      <c r="C11" s="13">
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>214</v>
       </c>
-      <c r="K11" s="17">
-        <v>5.79E-2</v>
+      <c r="K11" s="13">
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <v>398</v>
       </c>
-      <c r="O11" s="17">
-        <v>2.1000000000000001E-2</v>
+      <c r="O11" s="13">
+        <v>2.0899999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="17">
-        <v>397.72</v>
-      </c>
-      <c r="C12" s="17">
-        <v>9.4600000000000004E-2</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="13">
+        <v>596.58000000000004</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.1409</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="17">
-        <v>214</v>
-      </c>
-      <c r="K12" s="17">
-        <v>5.9200000000000003E-2</v>
+        <v>52</v>
+      </c>
+      <c r="J12" s="13">
+        <v>321</v>
+      </c>
+      <c r="K12" s="13">
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="17">
-        <v>398</v>
-      </c>
-      <c r="O12" s="17">
-        <v>2.0899999999999998E-2</v>
+        <v>60</v>
+      </c>
+      <c r="N12" s="13">
+        <v>597</v>
+      </c>
+      <c r="O12" s="13">
+        <v>3.0499999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>596.58000000000004</v>
       </c>
-      <c r="C13" s="17">
-        <v>0.1409</v>
+      <c r="C13" s="13">
+        <v>0.14990000000000001</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>321</v>
       </c>
-      <c r="K13" s="17">
-        <v>8.2000000000000003E-2</v>
+      <c r="K13" s="13">
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="13">
         <v>597</v>
       </c>
-      <c r="O13" s="17">
-        <v>3.0499999999999999E-2</v>
+      <c r="O13" s="13">
+        <v>3.09E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="17">
-        <v>596.58000000000004</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0.14990000000000001</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B14" s="13">
+        <v>795.44</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="I14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="17">
-        <v>321</v>
-      </c>
-      <c r="K14" s="17">
-        <v>7.8100000000000003E-2</v>
+        <v>53</v>
+      </c>
+      <c r="J14" s="13">
+        <v>428</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.1038</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="17">
-        <v>597</v>
-      </c>
-      <c r="O14" s="17">
-        <v>3.09E-2</v>
+        <v>61</v>
+      </c>
+      <c r="N14" s="13">
+        <v>796</v>
+      </c>
+      <c r="O14" s="13">
+        <v>4.0800000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="13">
         <v>795.44</v>
       </c>
-      <c r="C15" s="17">
-        <v>0.18970000000000001</v>
+      <c r="C15" s="13">
+        <v>0.19689999999999999</v>
       </c>
       <c r="E15" s="7"/>
       <c r="I15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>428</v>
       </c>
-      <c r="K15" s="17">
-        <v>0.1038</v>
+      <c r="K15" s="13">
+        <v>0.1045</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="13">
         <v>796</v>
       </c>
-      <c r="O15" s="17">
-        <v>4.0800000000000003E-2</v>
+      <c r="O15" s="13">
+        <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="17">
-        <v>795.44</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="I16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="17">
-        <v>428</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0.1045</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="13">
+        <v>994.3</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="13">
+        <v>535</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.12520000000000001</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="17">
-        <v>796</v>
-      </c>
-      <c r="O16" s="17">
-        <v>4.0599999999999997E-2</v>
+        <v>62</v>
+      </c>
+      <c r="N16" s="13">
+        <v>995</v>
+      </c>
+      <c r="O16" s="13">
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>994.3</v>
       </c>
-      <c r="C17" s="17">
-        <v>0.25590000000000002</v>
+      <c r="C17" s="13">
+        <v>0.2492</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>535</v>
       </c>
-      <c r="K17" s="17">
-        <v>0.12520000000000001</v>
+      <c r="K17" s="13">
+        <v>0.1295</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="13">
         <v>995</v>
       </c>
-      <c r="O17" s="17">
-        <v>5.0999999999999997E-2</v>
+      <c r="O17" s="13">
+        <v>5.1200000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="17">
-        <v>994.3</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0.2492</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="17">
-        <v>535</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0.1295</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="17">
-        <v>995</v>
-      </c>
-      <c r="O18" s="17">
-        <v>5.1200000000000002E-2</v>
-      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:15">
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:15">
@@ -2497,23 +2631,12 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="C27" s="7"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:15">
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="I29" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
